--- a/public/assets/examexcel/petakerawanan.xlsx
+++ b/public/assets/examexcel/petakerawanan.xlsx
@@ -74,9 +74,6 @@
     <t>Broken home</t>
   </si>
   <si>
-    <t xml:space="preserve">Kondisi ekonomi kurang </t>
-  </si>
-  <si>
     <t>Pergaulan di luar sekolah</t>
   </si>
   <si>
@@ -87,13 +84,16 @@
   </si>
   <si>
     <t>Membiayai sekolah sendiri / bekerja</t>
+  </si>
+  <si>
+    <t>Kondisi ekonomi kurang</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,12 +114,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -447,7 +441,7 @@
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,27 +528,27 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
